--- a/planilha/pla.xlsx
+++ b/planilha/pla.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="138">
   <si>
     <t>MICROFONE</t>
   </si>
@@ -309,12 +309,617 @@
   <si>
     <t>2 PARTE</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="204"/>
+      </rPr>
+      <t>João Lima</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Gerônimo Santos</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Marcos Marques</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Volnei Vieira</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Rogério Morais</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Sebastião Mariano</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Assembléia</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Natanael Santos</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Arnaldo Pinto</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Fernando Macchia</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Marcos Bueno</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Paulo C. Hortolani</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="204"/>
+      </rPr>
+      <t>José B. Menez</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Valdir Silva</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Paulo H. Hortolani</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Paulo Lima</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Alex Rodrigues</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Pedro de Barros</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Paulo Lopes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Bruno Alvares</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Sandro Roberto</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Sérgio Ferreira</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Eurípedes Isolino</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Thales Rodrigues</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Jonathan Rodrigues</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Marlene Marques</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Cristina Tamagnini</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Elisabete Militão</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Claudia  Alvares</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Lucia Vieira</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Andressa Santos</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Bianca Cardoso</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Cátia Rodrigues</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Lice Morgan</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Dara M. Hortolani</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Graziela Ferreira</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Tarsila Germano</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Luana Machado</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Thais Tamagnini</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Andréia Santos</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Sandra  Alves</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Eliane Ferreira</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Janete Silva</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Andressa Bonfim</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Karina Kolter</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Selma Matiole</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Antonia Souza</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Irene Nassife</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Danielle Peres</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Maria José Menez</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Welington França</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Gisele Matiole</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Boletim</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Necessidade Local</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Presidente</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -379,6 +984,31 @@
       <color rgb="FF006FC0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
+      <name val="Times New Roman"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -554,17 +1184,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -645,51 +1269,38 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="27">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC0504D"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1579,13 +2190,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1619,6 +2223,53 @@
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC0504D"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1633,34 +2284,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:V19" totalsRowShown="0" headerRowDxfId="0" dataDxfId="26" headerRowBorderDxfId="24" tableBorderDxfId="25" totalsRowBorderDxfId="23">
-  <autoFilter ref="A1:V19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:V35" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23" totalsRowBorderDxfId="22">
+  <autoFilter ref="A1:V35"/>
   <sortState ref="A2:V19">
     <sortCondition ref="A2"/>
   </sortState>
   <tableColumns count="22">
-    <tableColumn id="1" name="Dia" dataDxfId="22"/>
-    <tableColumn id="2" name="PRESIDENTE" dataDxfId="21"/>
-    <tableColumn id="3" name="INDICADOR 1" dataDxfId="20"/>
-    <tableColumn id="4" name="ZOOM" dataDxfId="19"/>
-    <tableColumn id="5" name="SOM" dataDxfId="18"/>
-    <tableColumn id="6" name="MICROFONE" dataDxfId="17"/>
-    <tableColumn id="7" name="MICROFONE 2" dataDxfId="16"/>
-    <tableColumn id="8" name="TESOUROS" dataDxfId="15"/>
-    <tableColumn id="9" name="JOIAS" dataDxfId="14"/>
-    <tableColumn id="10" name="LEITURA BIBLIA" dataDxfId="13"/>
-    <tableColumn id="16" name="VISITA 1" dataDxfId="12"/>
-    <tableColumn id="17" name="VISITA 2" dataDxfId="11"/>
-    <tableColumn id="18" name="REVISITA 1" dataDxfId="10"/>
-    <tableColumn id="19" name="REVISTA 2" dataDxfId="9"/>
-    <tableColumn id="20" name="ESTUDO 1" dataDxfId="8"/>
-    <tableColumn id="21" name="ESTUDO 2" dataDxfId="7"/>
-    <tableColumn id="22" name="DISCURSO 3" dataDxfId="6"/>
-    <tableColumn id="11" name="1 PARTE" dataDxfId="5"/>
-    <tableColumn id="12" name="2 PARTE" dataDxfId="4"/>
-    <tableColumn id="13" name="DIRIGENTE" dataDxfId="3"/>
-    <tableColumn id="14" name="LEITOR" dataDxfId="2"/>
-    <tableColumn id="15" name="ORACAO FINAL" dataDxfId="1"/>
+    <tableColumn id="1" name="Dia" dataDxfId="21"/>
+    <tableColumn id="2" name="PRESIDENTE" dataDxfId="20"/>
+    <tableColumn id="3" name="INDICADOR 1" dataDxfId="19"/>
+    <tableColumn id="4" name="ZOOM" dataDxfId="18"/>
+    <tableColumn id="5" name="SOM" dataDxfId="17"/>
+    <tableColumn id="6" name="MICROFONE" dataDxfId="16"/>
+    <tableColumn id="7" name="MICROFONE 2" dataDxfId="15"/>
+    <tableColumn id="8" name="TESOUROS" dataDxfId="14"/>
+    <tableColumn id="9" name="JOIAS" dataDxfId="13"/>
+    <tableColumn id="10" name="LEITURA BIBLIA" dataDxfId="12"/>
+    <tableColumn id="16" name="VISITA 1" dataDxfId="11"/>
+    <tableColumn id="17" name="VISITA 2" dataDxfId="10"/>
+    <tableColumn id="18" name="REVISITA 1" dataDxfId="9"/>
+    <tableColumn id="19" name="REVISTA 2" dataDxfId="8"/>
+    <tableColumn id="20" name="ESTUDO 1" dataDxfId="7"/>
+    <tableColumn id="21" name="ESTUDO 2" dataDxfId="6"/>
+    <tableColumn id="22" name="DISCURSO 3" dataDxfId="5"/>
+    <tableColumn id="11" name="1 PARTE" dataDxfId="4"/>
+    <tableColumn id="12" name="2 PARTE" dataDxfId="3"/>
+    <tableColumn id="13" name="DIRIGENTE" dataDxfId="2"/>
+    <tableColumn id="14" name="LEITOR" dataDxfId="1"/>
+    <tableColumn id="15" name="ORACAO FINAL" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1953,10 +2604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V28"/>
+  <dimension ref="A1:V35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1983,978 +2634,1750 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="R1" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="T1" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="U1" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="V1" s="10" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13">
+      <c r="A2" s="11">
         <v>44808</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="14" t="s">
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="16"/>
+      <c r="V2" s="14"/>
     </row>
     <row r="3" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17">
+      <c r="A3" s="15">
         <v>44811</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="M3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="N3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="21" t="s">
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="21" t="s">
+      <c r="S3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="T3" s="21" t="s">
+      <c r="T3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="U3" s="21" t="s">
+      <c r="U3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="V3" s="22" t="s">
+      <c r="V3" s="20" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="23">
+      <c r="A4" s="21">
         <v>44815</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="20" t="s">
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="V4" s="16"/>
+      <c r="V4" s="14"/>
     </row>
     <row r="5" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="23">
+      <c r="A5" s="21">
         <v>44818</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="20" t="s">
+      <c r="K5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="L5" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="M5" s="20" t="s">
+      <c r="M5" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="N5" s="20" t="s">
+      <c r="N5" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="O5" s="20" t="s">
+      <c r="O5" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="P5" s="20" t="s">
+      <c r="P5" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="20" t="s">
+      <c r="Q5" s="13"/>
+      <c r="R5" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="S5" s="15"/>
-      <c r="T5" s="20" t="s">
+      <c r="S5" s="13"/>
+      <c r="T5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="U5" s="20" t="s">
+      <c r="U5" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="V5" s="24" t="s">
+      <c r="V5" s="22" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13">
+      <c r="A6" s="11">
         <v>44822</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="14" t="s">
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="V6" s="16"/>
+      <c r="V6" s="14"/>
     </row>
     <row r="7" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17">
+      <c r="A7" s="15">
         <v>44825</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="20" t="s">
+      <c r="K7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="L7" s="20" t="s">
+      <c r="L7" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="M7" s="20" t="s">
+      <c r="M7" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="N7" s="20" t="s">
+      <c r="N7" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="O7" s="20" t="s">
+      <c r="O7" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="P7" s="20" t="s">
+      <c r="P7" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="21" t="s">
+      <c r="Q7" s="13"/>
+      <c r="R7" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="S7" s="25"/>
-      <c r="T7" s="21" t="s">
+      <c r="S7" s="23"/>
+      <c r="T7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="U7" s="21" t="s">
+      <c r="U7" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="V7" s="22" t="s">
+      <c r="V7" s="20" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="23">
+      <c r="A8" s="21">
         <v>44829</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="20" t="s">
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="V8" s="16"/>
+      <c r="V8" s="14"/>
     </row>
     <row r="9" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="23">
+      <c r="A9" s="21">
         <v>44832</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="20" t="s">
+      <c r="J9" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="K9" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="L9" s="20" t="s">
+      <c r="L9" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="M9" s="20" t="s">
+      <c r="M9" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="N9" s="20" t="s">
+      <c r="N9" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="O9" s="20" t="s">
+      <c r="O9" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="P9" s="20" t="s">
+      <c r="P9" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="20" t="s">
+      <c r="Q9" s="13"/>
+      <c r="R9" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="S9" s="20" t="s">
+      <c r="S9" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="T9" s="20" t="s">
+      <c r="T9" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="U9" s="20" t="s">
+      <c r="U9" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="V9" s="24" t="s">
+      <c r="V9" s="22" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13">
+      <c r="A10" s="11">
         <v>44836</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="14" t="s">
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="V10" s="16"/>
+      <c r="V10" s="14"/>
     </row>
     <row r="11" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="17">
+      <c r="A11" s="15">
         <v>44839</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="H11" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="19" t="s">
+      <c r="I11" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="19" t="s">
+      <c r="J11" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="K11" s="20" t="s">
+      <c r="K11" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="L11" s="20" t="s">
+      <c r="L11" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="20" t="s">
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="R11" s="21" t="s">
+      <c r="R11" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="S11" s="25"/>
-      <c r="T11" s="21" t="s">
+      <c r="S11" s="23"/>
+      <c r="T11" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="U11" s="21" t="s">
+      <c r="U11" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="V11" s="22" t="s">
+      <c r="V11" s="20" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="23">
+      <c r="A12" s="21">
         <v>44843</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="20" t="s">
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="V12" s="16"/>
+      <c r="V12" s="14"/>
     </row>
     <row r="13" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="23">
+      <c r="A13" s="21">
         <v>44845</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="20" t="s">
+      <c r="H13" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="20" t="s">
+      <c r="I13" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J13" s="20" t="s">
+      <c r="J13" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="20" t="s">
+      <c r="K13" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="L13" s="20" t="s">
+      <c r="L13" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="M13" s="20" t="s">
+      <c r="M13" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="N13" s="20" t="s">
+      <c r="N13" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="20" t="s">
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="S13" s="15"/>
-      <c r="T13" s="20" t="s">
+      <c r="S13" s="13"/>
+      <c r="T13" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="U13" s="15"/>
-      <c r="V13" s="24" t="s">
+      <c r="U13" s="13"/>
+      <c r="V13" s="22" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13">
+      <c r="A14" s="11">
         <v>44850</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="14" t="s">
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="V14" s="16"/>
+      <c r="V14" s="14"/>
     </row>
     <row r="15" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="17">
+      <c r="A15" s="15">
         <v>44853</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="H15" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="19" t="s">
+      <c r="I15" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="J15" s="19" t="s">
+      <c r="J15" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="K15" s="20" t="s">
+      <c r="K15" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="L15" s="20" t="s">
+      <c r="L15" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="M15" s="20" t="s">
+      <c r="M15" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="N15" s="20" t="s">
+      <c r="N15" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="20" t="s">
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="R15" s="21" t="s">
+      <c r="R15" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="S15" s="21" t="s">
+      <c r="S15" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="T15" s="21" t="s">
+      <c r="T15" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="U15" s="21" t="s">
+      <c r="U15" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="V15" s="22" t="s">
+      <c r="V15" s="20" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="23">
+      <c r="A16" s="21">
         <v>44857</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="20" t="s">
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="V16" s="16"/>
+      <c r="V16" s="14"/>
     </row>
     <row r="17" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="23">
+      <c r="A17" s="21">
         <v>44860</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="20" t="s">
+      <c r="H17" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I17" s="20" t="s">
+      <c r="I17" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="20" t="s">
+      <c r="J17" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="K17" s="20" t="s">
+      <c r="K17" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="L17" s="20" t="s">
+      <c r="L17" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="M17" s="20" t="s">
+      <c r="M17" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="N17" s="20" t="s">
+      <c r="N17" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="O17" s="20" t="s">
+      <c r="O17" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="P17" s="20" t="s">
+      <c r="P17" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="20" t="s">
+      <c r="Q17" s="13"/>
+      <c r="R17" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="S17" s="15"/>
-      <c r="T17" s="20" t="s">
+      <c r="S17" s="13"/>
+      <c r="T17" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="U17" s="20" t="s">
+      <c r="U17" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="V17" s="24" t="s">
+      <c r="V17" s="22" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="13">
+      <c r="A18" s="11">
         <v>44864</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="14" t="s">
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="V18" s="16"/>
+      <c r="V18" s="14"/>
     </row>
     <row r="19" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="26">
+      <c r="A19" s="24">
         <v>44871</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="27" t="s">
+      <c r="E19" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="27" t="s">
+      <c r="F19" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="27" t="s">
+      <c r="G19" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
-      <c r="U19" s="27" t="s">
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="V19" s="29"/>
+      <c r="V19" s="27"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="E27" s="3"/>
+    <row r="20" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="28">
+        <v>44874</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="H20" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="I20" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="J20" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="K20" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="L20" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="M20" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="N20" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="S20" s="30"/>
+      <c r="T20" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="U20" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="V20" s="31" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="E28" s="2"/>
+    <row r="21" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="28">
+        <v>44878</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="V21" s="32"/>
+    </row>
+    <row r="22" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="28">
+        <v>44881</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="H22" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="I22" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="J22" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="K22" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="L22" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="M22" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="N22" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="S22" s="30"/>
+      <c r="T22" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="U22" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="V22" s="31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="28">
+        <v>44885</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="V23" s="32"/>
+    </row>
+    <row r="24" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="28">
+        <v>44888</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="G24" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="H24" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="I24" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="J24" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="K24" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="L24" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="M24" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="N24" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="R24" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="S24" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="T24" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="U24" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="V24" s="31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="28">
+        <v>44892</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="30"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="30"/>
+      <c r="U25" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="V25" s="32"/>
+    </row>
+    <row r="26" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26" s="28">
+        <v>44895</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="30"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="32"/>
+    </row>
+    <row r="27" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="28">
+        <v>44899</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
+      <c r="R27" s="30"/>
+      <c r="S27" s="30"/>
+      <c r="T27" s="30"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="32"/>
+    </row>
+    <row r="28" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="28">
+        <v>44902</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="H28" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="I28" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="J28" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="K28" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="L28" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="M28" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="N28" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="O28" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="P28" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="S28" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="T28" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="U28" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="V28" s="31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" s="28">
+        <v>44906</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="F29" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="G29" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="30"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="30"/>
+      <c r="U29" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="V29" s="32"/>
+    </row>
+    <row r="30" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" s="28">
+        <v>44909</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="F30" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="G30" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="H30" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="I30" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="J30" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="K30" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="L30" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="M30" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="N30" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="30"/>
+      <c r="R30" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="S30" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="T30" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="U30" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="V30" s="31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" s="28">
+        <v>44913</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="E31" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="G31" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="30"/>
+      <c r="R31" s="30"/>
+      <c r="S31" s="30"/>
+      <c r="T31" s="30"/>
+      <c r="U31" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="V31" s="32"/>
+    </row>
+    <row r="32" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32" s="28">
+        <v>44916</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="F32" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="G32" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="H32" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="I32" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="J32" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="K32" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="L32" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="M32" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="N32" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="O32" s="30"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="S32" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="T32" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="U32" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="V32" s="31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A33" s="28">
+        <v>44920</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="F33" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="G33" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="30"/>
+      <c r="R33" s="30"/>
+      <c r="S33" s="30"/>
+      <c r="T33" s="30"/>
+      <c r="U33" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="V33" s="32"/>
+    </row>
+    <row r="34" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A34" s="28">
+        <v>44923</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="E34" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="F34" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="G34" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="H34" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="I34" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="J34" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="K34" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="L34" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="M34" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="N34" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="O34" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="P34" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q34" s="30"/>
+      <c r="R34" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="S34" s="30"/>
+      <c r="T34" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="U34" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="V34" s="31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A35" s="33">
+        <v>44927</v>
+      </c>
+      <c r="B35" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="F35" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="G35" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="35"/>
+      <c r="O35" s="35"/>
+      <c r="P35" s="35"/>
+      <c r="Q35" s="35"/>
+      <c r="R35" s="35"/>
+      <c r="S35" s="35"/>
+      <c r="T35" s="35"/>
+      <c r="U35" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="V35" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
